--- a/data/trans_dic/P17G_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.006156376854548937</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.009714951776009555</v>
+        <v>0.009714951776009556</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001820560789208076</v>
+        <v>0.002695245348465598</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0009046695359636878</v>
+        <v>0.0008898053812003188</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001784435529334189</v>
+        <v>0.001820389781973808</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.001110660261578706</v>
+        <v>0.001067349867674189</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.001752486514214457</v>
+        <v>0.001752652686143863</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002677488792369111</v>
+        <v>0.00259192212215545</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006803129538155565</v>
+        <v>0.006870871020231527</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.002626278605784355</v>
+        <v>0.002681939453185105</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.001834323007303887</v>
+        <v>0.001821436691042065</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.003210712746716205</v>
+        <v>0.003429200684769491</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.005274847034766568</v>
+        <v>0.005078104615417282</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01904286236900207</v>
+        <v>0.01972805663660745</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.009419802665424247</v>
+        <v>0.009965833802679798</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01336139522429103</v>
+        <v>0.01300989772117249</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01512375494066731</v>
+        <v>0.01363135049891397</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01076861660626481</v>
+        <v>0.009767125090319521</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01014833190052459</v>
+        <v>0.009779785209691525</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01275582957091788</v>
+        <v>0.0139252369914958</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02601384810354414</v>
+        <v>0.02652279045471381</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01058533750130526</v>
+        <v>0.01126501233863404</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.007397689602532839</v>
+        <v>0.00767058293198503</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01056541959656689</v>
+        <v>0.01103062740341357</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01691243402753789</v>
+        <v>0.01708866816027858</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.01215442903343708</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.006768199884872386</v>
+        <v>0.006768199884872385</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01543818947553106</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006799385987527758</v>
+        <v>0.006918322182365998</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005288762040693343</v>
+        <v>0.006090241725772084</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005668692247740382</v>
+        <v>0.00658909845100876</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002519636280662953</v>
+        <v>0.002548865859142222</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009031724586205695</v>
+        <v>0.008151005730587467</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.008058869589886509</v>
+        <v>0.007859497026622997</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01024630199759445</v>
+        <v>0.01014167617937252</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.009305397390401447</v>
+        <v>0.008821393286884539</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.009262398610751926</v>
+        <v>0.00934193772690859</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.008253987104227055</v>
+        <v>0.008578892316764258</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.009852724058698539</v>
+        <v>0.01054427867820421</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.007152923845951349</v>
+        <v>0.007324561826628612</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02245459795628306</v>
+        <v>0.02172473193473015</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02273075853220012</v>
+        <v>0.02152357981334746</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02058658542188254</v>
+        <v>0.02111433149521779</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01501112536293783</v>
+        <v>0.01511386938854457</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02520172220876863</v>
+        <v>0.02404842735910989</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02288677845615542</v>
+        <v>0.02323409523286365</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02875398898688514</v>
+        <v>0.02818832632123091</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02321655543397435</v>
+        <v>0.02257548635933145</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02022457721598099</v>
+        <v>0.01965773788494283</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01903858659877896</v>
+        <v>0.01836628835474302</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02174795211699425</v>
+        <v>0.02182853277341488</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01564951220883952</v>
+        <v>0.01649849516374761</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008821073804540435</v>
+        <v>0.008907422394108222</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008086043156134308</v>
+        <v>0.008019965003012264</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01651060134118547</v>
+        <v>0.01585676455984932</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01077559297134051</v>
+        <v>0.01013904488226815</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01428085535693896</v>
+        <v>0.01421050478626132</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.008397883596377376</v>
+        <v>0.008877486678823612</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01426076464096724</v>
+        <v>0.0143155270017777</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01542780135920314</v>
+        <v>0.01509886938038487</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01290407743362052</v>
+        <v>0.01324984403821992</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01028807725153576</v>
+        <v>0.01005240245089669</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01773245759409201</v>
+        <v>0.01757314582958044</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0144707669447131</v>
+        <v>0.01473143852201511</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02295760811022759</v>
+        <v>0.02278223072102843</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02559549594211294</v>
+        <v>0.02351264744123634</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04094153072566264</v>
+        <v>0.04081264627063787</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02930118994100352</v>
+        <v>0.02912223582183241</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03412411666285289</v>
+        <v>0.03437668754468957</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0286892459102357</v>
+        <v>0.02813022226726485</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03741625513145512</v>
+        <v>0.03722003305773353</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03027798173356099</v>
+        <v>0.02966853424800234</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02489789642537926</v>
+        <v>0.02496079575902759</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02295729170820919</v>
+        <v>0.02233090581535496</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03379388415897917</v>
+        <v>0.03404319314653947</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02608915448238299</v>
+        <v>0.02664371101528774</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.0439880202962484</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03820261824226986</v>
+        <v>0.03820261824226985</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03453188914195985</v>
@@ -1105,7 +1105,7 @@
         <v>0.04342634647305438</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.03910119702653622</v>
+        <v>0.03910119702653621</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01075291504899488</v>
+        <v>0.010390058153213</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01716340161948265</v>
+        <v>0.01625396178151791</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02697429889641085</v>
+        <v>0.02754138369401367</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02658612279528784</v>
+        <v>0.02627627220302392</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01741505732993463</v>
+        <v>0.0184758682412827</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01002015370227208</v>
+        <v>0.01059453637062252</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02720248262620778</v>
+        <v>0.02576752169551854</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03017151227436062</v>
+        <v>0.03000582035407727</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01650241007904504</v>
+        <v>0.01662421066372877</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01708153018211507</v>
+        <v>0.01675705830276078</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03179157582457739</v>
+        <v>0.03088337251146597</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03039857532705419</v>
+        <v>0.03151059097843333</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04139839120990298</v>
+        <v>0.03954667187045652</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05814137840919197</v>
+        <v>0.05616233098061919</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06423529219819171</v>
+        <v>0.06896105297945405</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05575629101667824</v>
+        <v>0.05418783928516009</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05760283603993723</v>
+        <v>0.06192261682095398</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03920164121897898</v>
+        <v>0.04128365456558061</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06777082759921015</v>
+        <v>0.06550048408132086</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05180931989380107</v>
+        <v>0.05180280679447601</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04121041048444914</v>
+        <v>0.04083956061313364</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04181468895930775</v>
+        <v>0.04118060236187211</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06071110856696922</v>
+        <v>0.05898643708789081</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04870425308409965</v>
+        <v>0.04848772424911096</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01000126269684663</v>
+        <v>0.01027081544246172</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.008805486224357504</v>
+        <v>0.009188233324449761</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0137052269840095</v>
+        <v>0.01380887373200246</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01388113177526864</v>
+        <v>0.0140334943332157</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01213297571654285</v>
+        <v>0.01221878093397894</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.009298541731543819</v>
+        <v>0.009043846186321368</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01429037496182994</v>
+        <v>0.01433017346240714</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01927468201290634</v>
+        <v>0.01917354636957581</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01224337996289016</v>
+        <v>0.01227282727795829</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01009589708376463</v>
+        <v>0.009832273941127966</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01517522509288087</v>
+        <v>0.01511382271572053</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0178593956489806</v>
+        <v>0.01770302317609028</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01865410555637229</v>
+        <v>0.01844995319636967</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01749705736099118</v>
+        <v>0.01767836176086396</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02402851304829696</v>
+        <v>0.02343529101421203</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02481279895667646</v>
+        <v>0.0241783045804807</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02146773694081249</v>
+        <v>0.02111561663841515</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01675042309496869</v>
+        <v>0.01665446507215712</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02361742251623594</v>
+        <v>0.02403065074633541</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02792983636441499</v>
+        <v>0.02773861895261926</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01830395091720365</v>
+        <v>0.01833722729176357</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01590839027411424</v>
+        <v>0.01573089997094837</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02196695221187941</v>
+        <v>0.02203758253408883</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02432597664525641</v>
+        <v>0.0242528645569099</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1063</v>
+        <v>1574</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2007</v>
+        <v>2048</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1023</v>
+        <v>983</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>1953</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3362</v>
+        <v>3254</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4231</v>
+        <v>4273</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3954</v>
+        <v>4038</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3945</v>
+        <v>3917</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7643</v>
+        <v>8163</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5906</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11124</v>
+        <v>11524</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9764</v>
+        <v>10330</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15029</v>
+        <v>14634</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7529</v>
+        <v>6786</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9921</v>
+        <v>8999</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>11308</v>
+        <v>10897</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16016</v>
+        <v>17484</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16178</v>
+        <v>16494</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>15936</v>
+        <v>16959</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>15911</v>
+        <v>16497</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>25150</v>
+        <v>26257</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>18937</v>
+        <v>19134</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7305</v>
+        <v>7433</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5121</v>
+        <v>5897</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5141</v>
+        <v>5975</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2418</v>
+        <v>2446</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9542</v>
+        <v>8612</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8732</v>
+        <v>8516</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10194</v>
+        <v>10090</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10379</v>
+        <v>9840</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>19737</v>
+        <v>19907</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>16935</v>
+        <v>17602</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>18737</v>
+        <v>20052</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>14842</v>
+        <v>15198</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24125</v>
+        <v>23341</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22010</v>
+        <v>20841</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18669</v>
+        <v>19147</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>14403</v>
+        <v>14501</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>26626</v>
+        <v>25408</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>24798</v>
+        <v>25174</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>28606</v>
+        <v>28044</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>25896</v>
+        <v>25181</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>43097</v>
+        <v>41889</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>39063</v>
+        <v>37684</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>41358</v>
+        <v>41511</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>32471</v>
+        <v>34233</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9886</v>
+        <v>9982</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7116</v>
+        <v>7058</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13507</v>
+        <v>12972</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11276</v>
+        <v>10610</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14194</v>
+        <v>14124</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7274</v>
+        <v>7690</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>10919</v>
+        <v>10961</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>16148</v>
+        <v>15803</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>27287</v>
+        <v>28018</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>17966</v>
+        <v>17554</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>28083</v>
+        <v>27831</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>30289</v>
+        <v>30835</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>25728</v>
+        <v>25531</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22526</v>
+        <v>20693</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33493</v>
+        <v>33387</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>30663</v>
+        <v>30476</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33917</v>
+        <v>34168</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>24850</v>
+        <v>24366</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>28649</v>
+        <v>28498</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>31691</v>
+        <v>31053</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>52649</v>
+        <v>52782</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>40089</v>
+        <v>38995</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>53520</v>
+        <v>53915</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>54608</v>
+        <v>55769</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4790</v>
+        <v>4628</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8583</v>
+        <v>8128</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13644</v>
+        <v>13930</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>25946</v>
+        <v>25644</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5941</v>
+        <v>6303</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4496</v>
+        <v>4753</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>13297</v>
+        <v>12596</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>27402</v>
+        <v>27251</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>12981</v>
+        <v>13077</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>16206</v>
+        <v>15898</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>31620</v>
+        <v>30717</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>57275</v>
+        <v>59370</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18441</v>
+        <v>17616</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>29076</v>
+        <v>28086</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>32490</v>
+        <v>34880</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>54414</v>
+        <v>52883</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19652</v>
+        <v>21125</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>17589</v>
+        <v>18523</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>33128</v>
+        <v>32018</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>47053</v>
+        <v>47047</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>32417</v>
+        <v>32125</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>39672</v>
+        <v>39070</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>60384</v>
+        <v>58669</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>91765</v>
+        <v>91357</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>32251</v>
+        <v>33120</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>29806</v>
+        <v>31101</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>45988</v>
+        <v>46336</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>48302</v>
+        <v>48833</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>40196</v>
+        <v>40480</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>32662</v>
+        <v>31767</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>50087</v>
+        <v>50226</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>71165</v>
+        <v>70792</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>80043</v>
+        <v>80235</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>69637</v>
+        <v>67818</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>104109</v>
+        <v>103687</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>128085</v>
+        <v>126964</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>60153</v>
+        <v>59495</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>59226</v>
+        <v>59840</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>80628</v>
+        <v>78637</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>86341</v>
+        <v>84134</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>71122</v>
+        <v>69955</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>58838</v>
+        <v>58501</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>82778</v>
+        <v>84226</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>103121</v>
+        <v>102415</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>119664</v>
+        <v>119882</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>109729</v>
+        <v>108504</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>150703</v>
+        <v>151187</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>174463</v>
+        <v>173938</v>
       </c>
     </row>
     <row r="24">
